--- a/src/main/webapp/WEB-INF/excel-templates/update_qh_qlda_result.xlsx
+++ b/src/main/webapp/WEB-INF/excel-templates/update_qh_qlda_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\RIMS\source\RIMS\src\main\webapp\WEB-INF\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAC772B5-A6E2-44CB-8CF5-0D8E8D36B34F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIM INFO" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Thông tin chung</t>
   </si>
@@ -70,9 +71,6 @@
     <t>Tình trạng nguồn điện</t>
   </si>
   <si>
-    <t>trạm QH theo phê duyệt</t>
-  </si>
-  <si>
     <t>VTT</t>
   </si>
   <si>
@@ -110,15 +108,6 @@
   </si>
   <si>
     <t>NOK</t>
-  </si>
-  <si>
-    <t>DEV_TEST2</t>
-  </si>
-  <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t>22/01/2018</t>
   </si>
   <si>
     <t>Kết quả</t>
@@ -127,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
@@ -611,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +615,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -725,45 +714,19 @@
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5">
-        <v>12</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -789,25 +752,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C$2:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>E4:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$F$2:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>K4:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet1!$E$2:$E$3</xm:f>
           </x14:formula1>
@@ -820,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -831,18 +794,18 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -850,13 +813,13 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -864,30 +827,30 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
